--- a/Zanac/Zanac.xlsx
+++ b/Zanac/Zanac.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="385">
   <si>
     <t>Notes</t>
   </si>
@@ -1201,18 +1201,28 @@
   <si>
     <t>V4</t>
   </si>
+  <si>
+    <t>Boss 2 End (Flash)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2103,34 +2113,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2138,185 +2148,185 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2326,10 +2336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2341,7 +2351,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2350,138 +2360,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2796,7 +2809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2946,7 +2959,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="98" t="s">
         <v>172</v>
       </c>
@@ -2960,8 +2973,8 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="205" t="s">
+      <c r="A10" s="147"/>
+      <c r="B10" s="140" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="101">
@@ -2977,18 +2990,24 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="206" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="101">
+        <v>11071</v>
+      </c>
+      <c r="D11" s="101">
+        <v>11556</v>
+      </c>
       <c r="E11" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="140"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="135"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -2999,7 +3018,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="140"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="135"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -3010,7 +3029,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="140"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="135"/>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -3021,7 +3040,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="140"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="135"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -3029,7 +3048,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A16" s="140"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="135"/>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
@@ -3037,7 +3056,7 @@
       <c r="F16" s="105"/>
     </row>
     <row r="17" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A17" s="140"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="100"/>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
@@ -3048,19 +3067,19 @@
       <c r="F17" s="105"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A18" s="140"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="98" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="99">
-        <v>8110</v>
+        <v>11786</v>
       </c>
       <c r="D18" s="99">
-        <v>10236</v>
+        <v>12373</v>
       </c>
       <c r="E18" s="101">
         <f t="shared" si="0"/>
-        <v>2126</v>
+        <v>587</v>
       </c>
       <c r="F18" s="104"/>
     </row>
@@ -3071,20 +3090,20 @@
       </c>
       <c r="C19" s="103">
         <f>C18-C9</f>
-        <v>8110</v>
+        <v>11786</v>
       </c>
       <c r="D19" s="103">
         <f>D18-D9</f>
-        <v>10236</v>
+        <v>12373</v>
       </c>
       <c r="E19" s="113">
         <f>E18-E9</f>
-        <v>2126</v>
+        <v>587</v>
       </c>
       <c r="F19" s="106"/>
       <c r="G19" s="107">
         <f>E19</f>
-        <v>2126</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" outlineLevel="1"/>
@@ -3296,13 +3315,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3332,18 +3351,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="1:8" ht="18" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -3495,9 +3514,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="2">
       <c r="A22" s="47">
@@ -3652,9 +3671,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -3805,9 +3824,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -3958,9 +3977,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -4111,9 +4130,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="150"/>
-      <c r="D89" s="151"/>
-      <c r="E89" s="151"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="149"/>
+      <c r="E89" s="149"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -4264,9 +4283,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="150"/>
-      <c r="D106" s="151"/>
-      <c r="E106" s="151"/>
+      <c r="C106" s="148"/>
+      <c r="D106" s="149"/>
+      <c r="E106" s="149"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -4417,9 +4436,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="150"/>
-      <c r="D123" s="151"/>
-      <c r="E123" s="151"/>
+      <c r="C123" s="148"/>
+      <c r="D123" s="149"/>
+      <c r="E123" s="149"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -4570,9 +4589,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="150"/>
-      <c r="D140" s="151"/>
-      <c r="E140" s="151"/>
+      <c r="C140" s="148"/>
+      <c r="D140" s="149"/>
+      <c r="E140" s="149"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -4723,9 +4742,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="150"/>
-      <c r="D157" s="151"/>
-      <c r="E157" s="151"/>
+      <c r="C157" s="148"/>
+      <c r="D157" s="149"/>
+      <c r="E157" s="149"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -4876,9 +4895,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="150"/>
-      <c r="D174" s="151"/>
-      <c r="E174" s="151"/>
+      <c r="C174" s="148"/>
+      <c r="D174" s="149"/>
+      <c r="E174" s="149"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -5033,9 +5052,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="150"/>
-      <c r="D191" s="151"/>
-      <c r="E191" s="151"/>
+      <c r="C191" s="148"/>
+      <c r="D191" s="149"/>
+      <c r="E191" s="149"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -5186,9 +5205,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="150"/>
-      <c r="D208" s="151"/>
-      <c r="E208" s="151"/>
+      <c r="C208" s="148"/>
+      <c r="D208" s="149"/>
+      <c r="E208" s="149"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -5339,9 +5358,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="150"/>
-      <c r="D225" s="151"/>
-      <c r="E225" s="151"/>
+      <c r="C225" s="148"/>
+      <c r="D225" s="149"/>
+      <c r="E225" s="149"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -5492,9 +5511,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="150"/>
-      <c r="D242" s="151"/>
-      <c r="E242" s="151"/>
+      <c r="C242" s="148"/>
+      <c r="D242" s="149"/>
+      <c r="E242" s="149"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -5645,9 +5664,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="150"/>
-      <c r="D259" s="151"/>
-      <c r="E259" s="151"/>
+      <c r="C259" s="148"/>
+      <c r="D259" s="149"/>
+      <c r="E259" s="149"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -5798,18 +5817,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="154"/>
-      <c r="D276" s="155"/>
-      <c r="E276" s="155"/>
+      <c r="C276" s="167"/>
+      <c r="D276" s="168"/>
+      <c r="E276" s="168"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="150"/>
-      <c r="D277" s="151"/>
-      <c r="E277" s="151"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="149"/>
+      <c r="E277" s="149"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -5960,9 +5979,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="152"/>
-      <c r="D294" s="153"/>
-      <c r="E294" s="153"/>
+      <c r="C294" s="150"/>
+      <c r="D294" s="151"/>
+      <c r="E294" s="151"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -6113,9 +6132,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="150"/>
-      <c r="D311" s="151"/>
-      <c r="E311" s="151"/>
+      <c r="C311" s="148"/>
+      <c r="D311" s="149"/>
+      <c r="E311" s="149"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -6266,9 +6285,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="150"/>
-      <c r="D328" s="151"/>
-      <c r="E328" s="151"/>
+      <c r="C328" s="148"/>
+      <c r="D328" s="149"/>
+      <c r="E328" s="149"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -6419,9 +6438,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="150"/>
-      <c r="D345" s="151"/>
-      <c r="E345" s="151"/>
+      <c r="C345" s="148"/>
+      <c r="D345" s="149"/>
+      <c r="E345" s="149"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -6572,9 +6591,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="150"/>
-      <c r="D362" s="151"/>
-      <c r="E362" s="151"/>
+      <c r="C362" s="148"/>
+      <c r="D362" s="149"/>
+      <c r="E362" s="149"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -6725,9 +6744,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="150"/>
-      <c r="D379" s="151"/>
-      <c r="E379" s="151"/>
+      <c r="C379" s="148"/>
+      <c r="D379" s="149"/>
+      <c r="E379" s="149"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -6878,9 +6897,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="150"/>
-      <c r="D396" s="151"/>
-      <c r="E396" s="151"/>
+      <c r="C396" s="148"/>
+      <c r="D396" s="149"/>
+      <c r="E396" s="149"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -7031,9 +7050,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="150"/>
-      <c r="D413" s="151"/>
-      <c r="E413" s="151"/>
+      <c r="C413" s="148"/>
+      <c r="D413" s="149"/>
+      <c r="E413" s="149"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -7184,9 +7203,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="150"/>
-      <c r="D430" s="151"/>
-      <c r="E430" s="151"/>
+      <c r="C430" s="148"/>
+      <c r="D430" s="149"/>
+      <c r="E430" s="149"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -7337,9 +7356,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="150"/>
-      <c r="D447" s="151"/>
-      <c r="E447" s="151"/>
+      <c r="C447" s="148"/>
+      <c r="D447" s="149"/>
+      <c r="E447" s="149"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -7490,9 +7509,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="150"/>
-      <c r="D464" s="151"/>
-      <c r="E464" s="151"/>
+      <c r="C464" s="148"/>
+      <c r="D464" s="149"/>
+      <c r="E464" s="149"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -7643,9 +7662,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="150"/>
-      <c r="D481" s="151"/>
-      <c r="E481" s="151"/>
+      <c r="C481" s="148"/>
+      <c r="D481" s="149"/>
+      <c r="E481" s="149"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -7796,9 +7815,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="150"/>
-      <c r="D498" s="151"/>
-      <c r="E498" s="151"/>
+      <c r="C498" s="148"/>
+      <c r="D498" s="149"/>
+      <c r="E498" s="149"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -7949,9 +7968,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="150"/>
-      <c r="D515" s="151"/>
-      <c r="E515" s="151"/>
+      <c r="C515" s="148"/>
+      <c r="D515" s="149"/>
+      <c r="E515" s="149"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -8102,9 +8121,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="150"/>
-      <c r="D532" s="151"/>
-      <c r="E532" s="151"/>
+      <c r="C532" s="148"/>
+      <c r="D532" s="149"/>
+      <c r="E532" s="149"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -8255,22 +8274,22 @@
         <v>48</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="156" t="s">
+      <c r="C549" s="162" t="s">
         <v>377</v>
       </c>
-      <c r="D549" s="157"/>
-      <c r="E549" s="157"/>
+      <c r="D549" s="163"/>
+      <c r="E549" s="163"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>49</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="158" t="s">
+      <c r="C550" s="164" t="s">
         <v>377</v>
       </c>
-      <c r="D550" s="159"/>
-      <c r="E550" s="160"/>
+      <c r="D550" s="165"/>
+      <c r="E550" s="166"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -8421,11 +8440,11 @@
         <v>50</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="152" t="s">
+      <c r="C567" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D567" s="153"/>
-      <c r="E567" s="153"/>
+      <c r="D567" s="151"/>
+      <c r="E567" s="151"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -8576,11 +8595,11 @@
         <v>51</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="152" t="s">
+      <c r="C584" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D584" s="153"/>
-      <c r="E584" s="153"/>
+      <c r="D584" s="151"/>
+      <c r="E584" s="151"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -8731,11 +8750,11 @@
         <v>52</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="152" t="s">
+      <c r="C601" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D601" s="153"/>
-      <c r="E601" s="153"/>
+      <c r="D601" s="151"/>
+      <c r="E601" s="151"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -8886,11 +8905,11 @@
         <v>53</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="152" t="s">
+      <c r="C618" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D618" s="153"/>
-      <c r="E618" s="153"/>
+      <c r="D618" s="151"/>
+      <c r="E618" s="151"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -9041,11 +9060,11 @@
         <v>54</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="152" t="s">
+      <c r="C635" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D635" s="153"/>
-      <c r="E635" s="153"/>
+      <c r="D635" s="151"/>
+      <c r="E635" s="151"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -9196,11 +9215,11 @@
         <v>55</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="152" t="s">
+      <c r="C652" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D652" s="153"/>
-      <c r="E652" s="153"/>
+      <c r="D652" s="151"/>
+      <c r="E652" s="151"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -9351,11 +9370,11 @@
         <v>56</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="152" t="s">
+      <c r="C669" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D669" s="153"/>
-      <c r="E669" s="153"/>
+      <c r="D669" s="151"/>
+      <c r="E669" s="151"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -9506,11 +9525,11 @@
         <v>57</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="152" t="s">
+      <c r="C686" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D686" s="153"/>
-      <c r="E686" s="153"/>
+      <c r="D686" s="151"/>
+      <c r="E686" s="151"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -9661,11 +9680,11 @@
         <v>58</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="152" t="s">
+      <c r="C703" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D703" s="153"/>
-      <c r="E703" s="153"/>
+      <c r="D703" s="151"/>
+      <c r="E703" s="151"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -9816,11 +9835,11 @@
         <v>59</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="152" t="s">
+      <c r="C720" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D720" s="153"/>
-      <c r="E720" s="153"/>
+      <c r="D720" s="151"/>
+      <c r="E720" s="151"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -9971,11 +9990,11 @@
         <v>60</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="152" t="s">
+      <c r="C737" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D737" s="153"/>
-      <c r="E737" s="153"/>
+      <c r="D737" s="151"/>
+      <c r="E737" s="151"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -10126,11 +10145,11 @@
         <v>61</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="152" t="s">
+      <c r="C754" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D754" s="153"/>
-      <c r="E754" s="153"/>
+      <c r="D754" s="151"/>
+      <c r="E754" s="151"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -10281,11 +10300,11 @@
         <v>62</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="152" t="s">
+      <c r="C771" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D771" s="153"/>
-      <c r="E771" s="153"/>
+      <c r="D771" s="151"/>
+      <c r="E771" s="151"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -10436,11 +10455,11 @@
         <v>63</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="152" t="s">
+      <c r="C788" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D788" s="153"/>
-      <c r="E788" s="153"/>
+      <c r="D788" s="151"/>
+      <c r="E788" s="151"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -10591,11 +10610,11 @@
         <v>64</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="152" t="s">
+      <c r="C805" s="150" t="s">
         <v>377</v>
       </c>
-      <c r="D805" s="153"/>
-      <c r="E805" s="153"/>
+      <c r="D805" s="151"/>
+      <c r="E805" s="151"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -10746,18 +10765,18 @@
         <v>65</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="161"/>
-      <c r="D822" s="162"/>
-      <c r="E822" s="162"/>
+      <c r="C822" s="160"/>
+      <c r="D822" s="161"/>
+      <c r="E822" s="161"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>66</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="150"/>
-      <c r="D823" s="151"/>
-      <c r="E823" s="151"/>
+      <c r="C823" s="148"/>
+      <c r="D823" s="149"/>
+      <c r="E823" s="149"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -10908,9 +10927,9 @@
         <v>67</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="152"/>
-      <c r="D840" s="153"/>
-      <c r="E840" s="153"/>
+      <c r="C840" s="150"/>
+      <c r="D840" s="151"/>
+      <c r="E840" s="151"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -11061,9 +11080,9 @@
         <v>68</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="150"/>
-      <c r="D857" s="151"/>
-      <c r="E857" s="151"/>
+      <c r="C857" s="148"/>
+      <c r="D857" s="149"/>
+      <c r="E857" s="149"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -11214,9 +11233,9 @@
         <v>69</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="150"/>
-      <c r="D874" s="151"/>
-      <c r="E874" s="151"/>
+      <c r="C874" s="148"/>
+      <c r="D874" s="149"/>
+      <c r="E874" s="149"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -11367,9 +11386,9 @@
         <v>70</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="150"/>
-      <c r="D891" s="151"/>
-      <c r="E891" s="151"/>
+      <c r="C891" s="148"/>
+      <c r="D891" s="149"/>
+      <c r="E891" s="149"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -11520,9 +11539,9 @@
         <v>71</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="150"/>
-      <c r="D908" s="151"/>
-      <c r="E908" s="151"/>
+      <c r="C908" s="148"/>
+      <c r="D908" s="149"/>
+      <c r="E908" s="149"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -11673,9 +11692,9 @@
         <v>72</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="150"/>
-      <c r="D925" s="151"/>
-      <c r="E925" s="151"/>
+      <c r="C925" s="148"/>
+      <c r="D925" s="149"/>
+      <c r="E925" s="149"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -11826,9 +11845,9 @@
         <v>73</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="150"/>
-      <c r="D942" s="151"/>
-      <c r="E942" s="151"/>
+      <c r="C942" s="148"/>
+      <c r="D942" s="149"/>
+      <c r="E942" s="149"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -11979,9 +11998,9 @@
         <v>74</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="150"/>
-      <c r="D959" s="151"/>
-      <c r="E959" s="151"/>
+      <c r="C959" s="148"/>
+      <c r="D959" s="149"/>
+      <c r="E959" s="149"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -12132,9 +12151,9 @@
         <v>75</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="150"/>
-      <c r="D976" s="151"/>
-      <c r="E976" s="151"/>
+      <c r="C976" s="148"/>
+      <c r="D976" s="149"/>
+      <c r="E976" s="149"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -12285,9 +12304,9 @@
         <v>76</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="150"/>
-      <c r="D993" s="151"/>
-      <c r="E993" s="151"/>
+      <c r="C993" s="148"/>
+      <c r="D993" s="149"/>
+      <c r="E993" s="149"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -12438,9 +12457,9 @@
         <v>77</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="150"/>
-      <c r="D1010" s="151"/>
-      <c r="E1010" s="151"/>
+      <c r="C1010" s="148"/>
+      <c r="D1010" s="149"/>
+      <c r="E1010" s="149"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -12591,9 +12610,9 @@
         <v>78</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="150"/>
-      <c r="D1027" s="151"/>
-      <c r="E1027" s="151"/>
+      <c r="C1027" s="148"/>
+      <c r="D1027" s="149"/>
+      <c r="E1027" s="149"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -12744,9 +12763,9 @@
         <v>81</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="150"/>
-      <c r="D1044" s="151"/>
-      <c r="E1044" s="151"/>
+      <c r="C1044" s="148"/>
+      <c r="D1044" s="149"/>
+      <c r="E1044" s="149"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -12897,9 +12916,9 @@
         <v>80</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="150"/>
-      <c r="D1061" s="151"/>
-      <c r="E1061" s="151"/>
+      <c r="C1061" s="148"/>
+      <c r="D1061" s="149"/>
+      <c r="E1061" s="149"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -13050,9 +13069,9 @@
         <v>82</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="150"/>
-      <c r="D1078" s="151"/>
-      <c r="E1078" s="151"/>
+      <c r="C1078" s="148"/>
+      <c r="D1078" s="149"/>
+      <c r="E1078" s="149"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -13203,18 +13222,18 @@
         <v>102</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="163"/>
-      <c r="D1095" s="164"/>
-      <c r="E1095" s="164"/>
+      <c r="C1095" s="158"/>
+      <c r="D1095" s="159"/>
+      <c r="E1095" s="159"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>83</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="150"/>
-      <c r="D1096" s="151"/>
-      <c r="E1096" s="151"/>
+      <c r="C1096" s="148"/>
+      <c r="D1096" s="149"/>
+      <c r="E1096" s="149"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -13365,9 +13384,9 @@
         <v>84</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="152"/>
-      <c r="D1113" s="153"/>
-      <c r="E1113" s="153"/>
+      <c r="C1113" s="150"/>
+      <c r="D1113" s="151"/>
+      <c r="E1113" s="151"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -13518,9 +13537,9 @@
         <v>85</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="150"/>
-      <c r="D1130" s="151"/>
-      <c r="E1130" s="151"/>
+      <c r="C1130" s="148"/>
+      <c r="D1130" s="149"/>
+      <c r="E1130" s="149"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -13671,9 +13690,9 @@
         <v>86</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="150"/>
-      <c r="D1147" s="151"/>
-      <c r="E1147" s="151"/>
+      <c r="C1147" s="148"/>
+      <c r="D1147" s="149"/>
+      <c r="E1147" s="149"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -13824,9 +13843,9 @@
         <v>87</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="150"/>
-      <c r="D1164" s="151"/>
-      <c r="E1164" s="151"/>
+      <c r="C1164" s="148"/>
+      <c r="D1164" s="149"/>
+      <c r="E1164" s="149"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -13977,9 +13996,9 @@
         <v>88</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="150"/>
-      <c r="D1181" s="151"/>
-      <c r="E1181" s="151"/>
+      <c r="C1181" s="148"/>
+      <c r="D1181" s="149"/>
+      <c r="E1181" s="149"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -14130,9 +14149,9 @@
         <v>89</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="150"/>
-      <c r="D1198" s="151"/>
-      <c r="E1198" s="151"/>
+      <c r="C1198" s="148"/>
+      <c r="D1198" s="149"/>
+      <c r="E1198" s="149"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -14283,9 +14302,9 @@
         <v>90</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="150"/>
-      <c r="D1215" s="151"/>
-      <c r="E1215" s="151"/>
+      <c r="C1215" s="148"/>
+      <c r="D1215" s="149"/>
+      <c r="E1215" s="149"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -14436,9 +14455,9 @@
         <v>91</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="150"/>
-      <c r="D1232" s="151"/>
-      <c r="E1232" s="151"/>
+      <c r="C1232" s="148"/>
+      <c r="D1232" s="149"/>
+      <c r="E1232" s="149"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -14589,9 +14608,9 @@
         <v>92</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="150"/>
-      <c r="D1249" s="151"/>
-      <c r="E1249" s="151"/>
+      <c r="C1249" s="148"/>
+      <c r="D1249" s="149"/>
+      <c r="E1249" s="149"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -14742,9 +14761,9 @@
         <v>97</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="150"/>
-      <c r="D1266" s="151"/>
-      <c r="E1266" s="151"/>
+      <c r="C1266" s="148"/>
+      <c r="D1266" s="149"/>
+      <c r="E1266" s="149"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -14895,9 +14914,9 @@
         <v>98</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="150"/>
-      <c r="D1283" s="151"/>
-      <c r="E1283" s="151"/>
+      <c r="C1283" s="148"/>
+      <c r="D1283" s="149"/>
+      <c r="E1283" s="149"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -15048,9 +15067,9 @@
         <v>99</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="150"/>
-      <c r="D1300" s="151"/>
-      <c r="E1300" s="151"/>
+      <c r="C1300" s="148"/>
+      <c r="D1300" s="149"/>
+      <c r="E1300" s="149"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -15201,9 +15220,9 @@
         <v>79</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="150"/>
-      <c r="D1317" s="151"/>
-      <c r="E1317" s="151"/>
+      <c r="C1317" s="148"/>
+      <c r="D1317" s="149"/>
+      <c r="E1317" s="149"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -15354,9 +15373,9 @@
         <v>100</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="150"/>
-      <c r="D1334" s="151"/>
-      <c r="E1334" s="151"/>
+      <c r="C1334" s="148"/>
+      <c r="D1334" s="149"/>
+      <c r="E1334" s="149"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -15507,9 +15526,9 @@
         <v>96</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="150"/>
-      <c r="D1351" s="151"/>
-      <c r="E1351" s="151"/>
+      <c r="C1351" s="148"/>
+      <c r="D1351" s="149"/>
+      <c r="E1351" s="149"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -15660,20 +15679,20 @@
         <v>101</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="165"/>
-      <c r="D1368" s="166"/>
-      <c r="E1368" s="166"/>
+      <c r="C1368" s="156"/>
+      <c r="D1368" s="157"/>
+      <c r="E1368" s="157"/>
     </row>
     <row r="1369" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>103</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="150" t="s">
+      <c r="C1369" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="D1369" s="151"/>
-      <c r="E1369" s="151"/>
+      <c r="D1369" s="149"/>
+      <c r="E1369" s="149"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -15920,11 +15939,11 @@
         <v>104</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="152" t="s">
+      <c r="C1386" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="D1386" s="153"/>
-      <c r="E1386" s="153"/>
+      <c r="D1386" s="151"/>
+      <c r="E1386" s="151"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -16171,11 +16190,11 @@
         <v>105</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="150" t="s">
+      <c r="C1403" s="148" t="s">
         <v>370</v>
       </c>
-      <c r="D1403" s="151"/>
-      <c r="E1403" s="151"/>
+      <c r="D1403" s="149"/>
+      <c r="E1403" s="149"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -16374,11 +16393,11 @@
         <v>106</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="150" t="s">
+      <c r="C1420" s="148" t="s">
         <v>285</v>
       </c>
-      <c r="D1420" s="151"/>
-      <c r="E1420" s="151"/>
+      <c r="D1420" s="149"/>
+      <c r="E1420" s="149"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -16563,11 +16582,11 @@
         <v>107</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="150" t="s">
+      <c r="C1437" s="148" t="s">
         <v>376</v>
       </c>
-      <c r="D1437" s="151"/>
-      <c r="E1437" s="151"/>
+      <c r="D1437" s="149"/>
+      <c r="E1437" s="149"/>
     </row>
     <row r="1438" spans="1:5" outlineLevel="2">
       <c r="A1438" s="74">
@@ -16728,9 +16747,9 @@
         <v>108</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="150"/>
-      <c r="D1454" s="151"/>
-      <c r="E1454" s="151"/>
+      <c r="C1454" s="148"/>
+      <c r="D1454" s="149"/>
+      <c r="E1454" s="149"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -16881,9 +16900,9 @@
         <v>109</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="150"/>
-      <c r="D1471" s="151"/>
-      <c r="E1471" s="151"/>
+      <c r="C1471" s="148"/>
+      <c r="D1471" s="149"/>
+      <c r="E1471" s="149"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17034,9 +17053,9 @@
         <v>110</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="150"/>
-      <c r="D1488" s="151"/>
-      <c r="E1488" s="151"/>
+      <c r="C1488" s="148"/>
+      <c r="D1488" s="149"/>
+      <c r="E1488" s="149"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -17187,9 +17206,9 @@
         <v>111</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="150"/>
-      <c r="D1505" s="151"/>
-      <c r="E1505" s="151"/>
+      <c r="C1505" s="148"/>
+      <c r="D1505" s="149"/>
+      <c r="E1505" s="149"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -17340,9 +17359,9 @@
         <v>112</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="150"/>
-      <c r="D1522" s="151"/>
-      <c r="E1522" s="151"/>
+      <c r="C1522" s="148"/>
+      <c r="D1522" s="149"/>
+      <c r="E1522" s="149"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -17493,9 +17512,9 @@
         <v>93</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="150"/>
-      <c r="D1539" s="151"/>
-      <c r="E1539" s="151"/>
+      <c r="C1539" s="148"/>
+      <c r="D1539" s="149"/>
+      <c r="E1539" s="149"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -17646,9 +17665,9 @@
         <v>113</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="150"/>
-      <c r="D1556" s="151"/>
-      <c r="E1556" s="151"/>
+      <c r="C1556" s="148"/>
+      <c r="D1556" s="149"/>
+      <c r="E1556" s="149"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -17799,9 +17818,9 @@
         <v>114</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="150"/>
-      <c r="D1573" s="151"/>
-      <c r="E1573" s="151"/>
+      <c r="C1573" s="148"/>
+      <c r="D1573" s="149"/>
+      <c r="E1573" s="149"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -17952,9 +17971,9 @@
         <v>115</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="150"/>
-      <c r="D1590" s="151"/>
-      <c r="E1590" s="151"/>
+      <c r="C1590" s="148"/>
+      <c r="D1590" s="149"/>
+      <c r="E1590" s="149"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -18105,9 +18124,9 @@
         <v>116</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="150"/>
-      <c r="D1607" s="151"/>
-      <c r="E1607" s="151"/>
+      <c r="C1607" s="148"/>
+      <c r="D1607" s="149"/>
+      <c r="E1607" s="149"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -18258,9 +18277,9 @@
         <v>117</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="150"/>
-      <c r="D1624" s="151"/>
-      <c r="E1624" s="151"/>
+      <c r="C1624" s="148"/>
+      <c r="D1624" s="149"/>
+      <c r="E1624" s="149"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -18411,18 +18430,18 @@
         <v>118</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="167"/>
-      <c r="D1641" s="168"/>
-      <c r="E1641" s="168"/>
+      <c r="C1641" s="154"/>
+      <c r="D1641" s="155"/>
+      <c r="E1641" s="155"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>119</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="150"/>
-      <c r="D1642" s="151"/>
-      <c r="E1642" s="151"/>
+      <c r="C1642" s="148"/>
+      <c r="D1642" s="149"/>
+      <c r="E1642" s="149"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -18573,9 +18592,9 @@
         <v>120</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="152"/>
-      <c r="D1659" s="153"/>
-      <c r="E1659" s="153"/>
+      <c r="C1659" s="150"/>
+      <c r="D1659" s="151"/>
+      <c r="E1659" s="151"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -18726,9 +18745,9 @@
         <v>121</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="150"/>
-      <c r="D1676" s="151"/>
-      <c r="E1676" s="151"/>
+      <c r="C1676" s="148"/>
+      <c r="D1676" s="149"/>
+      <c r="E1676" s="149"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -18879,9 +18898,9 @@
         <v>122</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="150"/>
-      <c r="D1693" s="151"/>
-      <c r="E1693" s="151"/>
+      <c r="C1693" s="148"/>
+      <c r="D1693" s="149"/>
+      <c r="E1693" s="149"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19032,9 +19051,9 @@
         <v>123</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="150"/>
-      <c r="D1710" s="151"/>
-      <c r="E1710" s="151"/>
+      <c r="C1710" s="148"/>
+      <c r="D1710" s="149"/>
+      <c r="E1710" s="149"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -19185,9 +19204,9 @@
         <v>124</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="150"/>
-      <c r="D1727" s="151"/>
-      <c r="E1727" s="151"/>
+      <c r="C1727" s="148"/>
+      <c r="D1727" s="149"/>
+      <c r="E1727" s="149"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -19338,9 +19357,9 @@
         <v>125</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="150"/>
-      <c r="D1744" s="151"/>
-      <c r="E1744" s="151"/>
+      <c r="C1744" s="148"/>
+      <c r="D1744" s="149"/>
+      <c r="E1744" s="149"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -19491,9 +19510,9 @@
         <v>126</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="150"/>
-      <c r="D1761" s="151"/>
-      <c r="E1761" s="151"/>
+      <c r="C1761" s="148"/>
+      <c r="D1761" s="149"/>
+      <c r="E1761" s="149"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -19644,9 +19663,9 @@
         <v>127</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="150"/>
-      <c r="D1778" s="151"/>
-      <c r="E1778" s="151"/>
+      <c r="C1778" s="148"/>
+      <c r="D1778" s="149"/>
+      <c r="E1778" s="149"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -19797,9 +19816,9 @@
         <v>128</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="150"/>
-      <c r="D1795" s="151"/>
-      <c r="E1795" s="151"/>
+      <c r="C1795" s="148"/>
+      <c r="D1795" s="149"/>
+      <c r="E1795" s="149"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -19950,9 +19969,9 @@
         <v>129</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="150"/>
-      <c r="D1812" s="151"/>
-      <c r="E1812" s="151"/>
+      <c r="C1812" s="148"/>
+      <c r="D1812" s="149"/>
+      <c r="E1812" s="149"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -20103,9 +20122,9 @@
         <v>94</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="150"/>
-      <c r="D1829" s="151"/>
-      <c r="E1829" s="151"/>
+      <c r="C1829" s="148"/>
+      <c r="D1829" s="149"/>
+      <c r="E1829" s="149"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -20256,9 +20275,9 @@
         <v>130</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="150"/>
-      <c r="D1846" s="151"/>
-      <c r="E1846" s="151"/>
+      <c r="C1846" s="148"/>
+      <c r="D1846" s="149"/>
+      <c r="E1846" s="149"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -20409,9 +20428,9 @@
         <v>131</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="150"/>
-      <c r="D1863" s="151"/>
-      <c r="E1863" s="151"/>
+      <c r="C1863" s="148"/>
+      <c r="D1863" s="149"/>
+      <c r="E1863" s="149"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -20562,9 +20581,9 @@
         <v>132</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="150"/>
-      <c r="D1880" s="151"/>
-      <c r="E1880" s="151"/>
+      <c r="C1880" s="148"/>
+      <c r="D1880" s="149"/>
+      <c r="E1880" s="149"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -20715,9 +20734,9 @@
         <v>133</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="150"/>
-      <c r="D1897" s="151"/>
-      <c r="E1897" s="151"/>
+      <c r="C1897" s="148"/>
+      <c r="D1897" s="149"/>
+      <c r="E1897" s="149"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -20868,22 +20887,22 @@
         <v>134</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="169" t="s">
+      <c r="C1914" s="152" t="s">
         <v>369</v>
       </c>
-      <c r="D1914" s="170"/>
-      <c r="E1914" s="170"/>
+      <c r="D1914" s="153"/>
+      <c r="E1914" s="153"/>
     </row>
     <row r="1915" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>135</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="150" t="s">
+      <c r="C1915" s="148" t="s">
         <v>319</v>
       </c>
-      <c r="D1915" s="151"/>
-      <c r="E1915" s="151"/>
+      <c r="D1915" s="149"/>
+      <c r="E1915" s="149"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21130,11 +21149,11 @@
         <v>136</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="152" t="s">
+      <c r="C1932" s="150" t="s">
         <v>310</v>
       </c>
-      <c r="D1932" s="153"/>
-      <c r="E1932" s="153"/>
+      <c r="D1932" s="151"/>
+      <c r="E1932" s="151"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -21321,11 +21340,11 @@
         <v>137</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="150" t="s">
+      <c r="C1949" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="D1949" s="151"/>
-      <c r="E1949" s="151"/>
+      <c r="D1949" s="149"/>
+      <c r="E1949" s="149"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -21524,11 +21543,11 @@
         <v>138</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="150" t="s">
+      <c r="C1966" s="148" t="s">
         <v>367</v>
       </c>
-      <c r="D1966" s="151"/>
-      <c r="E1966" s="151"/>
+      <c r="D1966" s="149"/>
+      <c r="E1966" s="149"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -21723,11 +21742,11 @@
         <v>139</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="150" t="s">
+      <c r="C1983" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="D1983" s="151"/>
-      <c r="E1983" s="151"/>
+      <c r="D1983" s="149"/>
+      <c r="E1983" s="149"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -21926,11 +21945,11 @@
         <v>140</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="150" t="s">
+      <c r="C2000" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="D2000" s="151"/>
-      <c r="E2000" s="151"/>
+      <c r="D2000" s="149"/>
+      <c r="E2000" s="149"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22121,11 +22140,11 @@
         <v>141</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="150" t="s">
+      <c r="C2017" s="148" t="s">
         <v>335</v>
       </c>
-      <c r="D2017" s="151"/>
-      <c r="E2017" s="151"/>
+      <c r="D2017" s="149"/>
+      <c r="E2017" s="149"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22308,11 +22327,11 @@
         <v>142</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="150" t="s">
+      <c r="C2034" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="D2034" s="151"/>
-      <c r="E2034" s="151"/>
+      <c r="D2034" s="149"/>
+      <c r="E2034" s="149"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -22505,11 +22524,11 @@
         <v>143</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="150" t="s">
+      <c r="C2051" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="D2051" s="151"/>
-      <c r="E2051" s="151"/>
+      <c r="D2051" s="149"/>
+      <c r="E2051" s="149"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -22724,11 +22743,11 @@
         <v>144</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="150" t="s">
+      <c r="C2068" s="148" t="s">
         <v>356</v>
       </c>
-      <c r="D2068" s="151"/>
-      <c r="E2068" s="151"/>
+      <c r="D2068" s="149"/>
+      <c r="E2068" s="149"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -22939,11 +22958,11 @@
         <v>145</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="150" t="s">
+      <c r="C2085" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="D2085" s="151"/>
-      <c r="E2085" s="151"/>
+      <c r="D2085" s="149"/>
+      <c r="E2085" s="149"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23128,11 +23147,11 @@
         <v>146</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="150" t="s">
+      <c r="C2102" s="148" t="s">
         <v>357</v>
       </c>
-      <c r="D2102" s="151"/>
-      <c r="E2102" s="151"/>
+      <c r="D2102" s="149"/>
+      <c r="E2102" s="149"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23321,9 +23340,9 @@
         <v>95</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="150"/>
-      <c r="D2119" s="151"/>
-      <c r="E2119" s="151"/>
+      <c r="C2119" s="148"/>
+      <c r="D2119" s="149"/>
+      <c r="E2119" s="149"/>
     </row>
     <row r="2120" spans="1:5" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23474,9 +23493,9 @@
         <v>147</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="150"/>
-      <c r="D2136" s="151"/>
-      <c r="E2136" s="151"/>
+      <c r="C2136" s="148"/>
+      <c r="D2136" s="149"/>
+      <c r="E2136" s="149"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23627,9 +23646,9 @@
         <v>148</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="150"/>
-      <c r="D2153" s="151"/>
-      <c r="E2153" s="151"/>
+      <c r="C2153" s="148"/>
+      <c r="D2153" s="149"/>
+      <c r="E2153" s="149"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -23780,9 +23799,9 @@
         <v>149</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="150"/>
-      <c r="D2170" s="151"/>
-      <c r="E2170" s="151"/>
+      <c r="C2170" s="148"/>
+      <c r="D2170" s="149"/>
+      <c r="E2170" s="149"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -23930,15 +23949,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -23951,124 +24077,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24093,51 +24112,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="172" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24354,19 +24373,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="172" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="174"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24583,19 +24602,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="171" t="s">
+      <c r="A37" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="173"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="174"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -24819,7 +24838,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -24853,28 +24872,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="178"/>
+      <c r="A3" s="179"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="179"/>
+      <c r="A4" s="180"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="179"/>
+      <c r="A5" s="180"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="179"/>
+      <c r="A6" s="180"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="179"/>
+      <c r="A7" s="180"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="179"/>
+      <c r="A8" s="180"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="179"/>
+      <c r="A9" s="180"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="180"/>
+      <c r="A10" s="181"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25030,7 +25049,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25057,10 +25076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="183"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25071,7 +25090,7 @@
       <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="184" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="118" t="s">
@@ -25085,7 +25104,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="184"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="115" t="s">
         <v>157</v>
       </c>
@@ -25097,7 +25116,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="184"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="115" t="s">
         <v>158</v>
       </c>
@@ -25106,7 +25125,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="184"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="126" t="s">
         <v>197</v>
       </c>
@@ -25118,7 +25137,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="184"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="115" t="s">
         <v>167</v>
       </c>
@@ -25130,7 +25149,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="184"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="115" t="s">
         <v>168</v>
       </c>
@@ -25139,7 +25158,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="185"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="123" t="s">
         <v>159</v>
       </c>
@@ -25154,21 +25173,21 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="184" t="s">
         <v>196</v>
       </c>
       <c r="B11" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="117" t="str">
         <f>FrameCounts!B11</f>
-        <v>0</v>
+        <v>Boss 2 End (Flash)</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="184"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="115" t="s">
         <v>157</v>
       </c>
@@ -25180,7 +25199,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="184"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="115" t="s">
         <v>158</v>
       </c>
@@ -25189,7 +25208,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="184"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="126" t="s">
         <v>197</v>
       </c>
@@ -25201,7 +25220,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="115" t="s">
         <v>167</v>
       </c>
@@ -25213,7 +25232,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="184"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="115" t="s">
         <v>168</v>
       </c>
@@ -25222,7 +25241,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="185"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="123" t="s">
         <v>159</v>
       </c>
@@ -25237,7 +25256,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="184" t="s">
         <v>196</v>
       </c>
       <c r="B19" s="118" t="s">
@@ -25246,7 +25265,7 @@
       <c r="C19" s="117"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="184"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="115" t="s">
         <v>157</v>
       </c>
@@ -25256,14 +25275,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="184"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="115" t="s">
         <v>158</v>
       </c>
       <c r="C21" s="120"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="184"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="126" t="s">
         <v>197</v>
       </c>
@@ -25273,7 +25292,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="184"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="115" t="s">
         <v>167</v>
       </c>
@@ -25283,14 +25302,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="184"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="115" t="s">
         <v>168</v>
       </c>
       <c r="C24" s="119"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="185"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="123" t="s">
         <v>159</v>
       </c>
@@ -25303,7 +25322,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25334,17 +25353,17 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="193" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="194"/>
       <c r="C2" s="111"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="203"/>
+      <c r="B3" s="194"/>
       <c r="C3" s="111"/>
     </row>
     <row r="4" spans="1:5">
@@ -25360,115 +25379,128 @@
       <c r="C5" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="204" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="191"/>
+      <c r="B7" s="205"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="111"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="193"/>
+      <c r="B9" s="203"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="190"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="187"/>
+      <c r="B11" s="192"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="191" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="187"/>
+      <c r="B12" s="192"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="191" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="187"/>
+      <c r="B13" s="192"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="191" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="187"/>
+      <c r="B14" s="192"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="191" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="187"/>
+      <c r="B15" s="192"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="191" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="187"/>
+      <c r="B16" s="192"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="188"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="205"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="111"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="193"/>
+      <c r="B21" s="203"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="194"/>
-      <c r="B22" s="195"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="187"/>
+      <c r="B23" s="192"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="186"/>
-      <c r="B24" s="187"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="192"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="186" t="s">
+      <c r="A25" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="187"/>
+      <c r="B25" s="192"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="187"/>
+      <c r="B26" s="192"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25479,19 +25511,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
